--- a/results/mp/tinybert/corona/confidence/42/topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,30 +40,15 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -73,100 +58,103 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -524,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +599,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,31 +649,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>114</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="L4">
+        <v>56</v>
+      </c>
+      <c r="M4">
+        <v>56</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>18</v>
-      </c>
-      <c r="M4">
-        <v>18</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7597402597402597</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C5">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.96875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7058823529411765</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,31 +749,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>155</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="L6">
+        <v>41</v>
+      </c>
+      <c r="M6">
+        <v>41</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L6">
-        <v>23</v>
-      </c>
-      <c r="M6">
-        <v>23</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4583333333333333</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>339</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K7">
-        <v>0.9375</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,45 +823,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>18</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8928571428571429</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,45 +849,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3175965665236051</v>
-      </c>
-      <c r="C9">
-        <v>74</v>
-      </c>
-      <c r="D9">
-        <v>74</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>159</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8823529411764706</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -939,141 +879,69 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>0.8203125</v>
+      </c>
+      <c r="L10">
+        <v>105</v>
+      </c>
+      <c r="M10">
+        <v>105</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L11">
+        <v>67</v>
+      </c>
+      <c r="M11">
+        <v>67</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>0.2125</v>
-      </c>
-      <c r="C10">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>63</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>0.875</v>
-      </c>
-      <c r="L10">
-        <v>35</v>
-      </c>
-      <c r="M10">
-        <v>35</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.186046511627907</v>
-      </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>70</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L11">
-        <v>45</v>
-      </c>
-      <c r="M11">
-        <v>45</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>9</v>
-      </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.0962962962962963</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>122</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,21 +953,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7843137254901961</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="M13">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,21 +979,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7307692307692307</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1137,21 +1005,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1163,21 +1031,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.72</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1189,21 +1057,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.717948717948718</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1215,21 +1083,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7083333333333334</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1241,47 +1109,47 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6986301369863014</v>
+        <v>0.68125</v>
       </c>
       <c r="L19">
+        <v>109</v>
+      </c>
+      <c r="M19">
+        <v>109</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>51</v>
-      </c>
-      <c r="M19">
-        <v>51</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6896551724137931</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1293,21 +1161,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6470588235294118</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1319,21 +1187,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22">
+        <v>0.6031746031746031</v>
+      </c>
+      <c r="L22">
         <v>38</v>
       </c>
-      <c r="K22">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L22">
-        <v>11</v>
-      </c>
       <c r="M22">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1345,21 +1213,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6363636363636364</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1371,21 +1239,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5789473684210527</v>
+        <v>0.58</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1397,21 +1265,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5600000000000001</v>
+        <v>0.5143603133159269</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1423,21 +1291,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.55</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1449,21 +1317,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5305164319248826</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="L27">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="M27">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1475,21 +1343,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>100</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5138888888888888</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L28">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="M28">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1501,21 +1369,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>70</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.3430962343096234</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1527,21 +1395,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1553,47 +1421,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4263565891472868</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L31">
+        <v>23</v>
+      </c>
+      <c r="M31">
+        <v>23</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>55</v>
-      </c>
-      <c r="M31">
-        <v>55</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>74</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4</v>
+        <v>0.01583333333333333</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1605,47 +1473,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.391304347826087</v>
+        <v>0.007774140752864157</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>56</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.2631578947368421</v>
+        <v>0.005083179297597043</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1657,7 +1525,33 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>0.004204204204204204</v>
+      </c>
+      <c r="L35">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>22</v>
+      </c>
+      <c r="N35">
+        <v>0.95</v>
+      </c>
+      <c r="O35">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>4974</v>
       </c>
     </row>
   </sheetData>
